--- a/jour21.xlsx
+++ b/jour21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Healey', 'ChaÃ¯bi', 'Van_den_Boomen', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Perrin', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Dante']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Ito', 'Flips']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Innocent']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Bailly', 'Gigot', 'Payet']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Porozo', 'Odobert', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Gusto', 'Gusto', 'Bercola', 'Aouar']</t>
+    <t>['Mollet']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Beka', 'Bryan', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Borges', 'Boyer', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Mavididi', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Cherki']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Aguilar', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Dugimont']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
+    <t>Troyes</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Martin']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Germain']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Versini', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Blas', 'Ganago', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Brassier']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Ben_Yedder', 'Embolo', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Mbappe']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Bain', 'Pellenard', 'Bain']</t>
+    <t>['Innocent']</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Lebas']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Soler', 'Soler', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'Djiku', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Porozo', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Bailly']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +558,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -581,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,7 +587,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -610,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +628,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +657,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +674,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +686,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,19 +703,19 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,19 +732,19 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,19 +761,19 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,19 +790,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour21.xlsx
+++ b/jour21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Mollet']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Beka', 'Bryan', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Gouiri']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Borges', 'Boyer', 'Gastien']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Mavididi', 'Mavididi']</t>
-  </si>
-  <si>
-    <t>['Cherki']</t>
-  </si>
-  <si>
-    <t>['Henrique', 'Aguilar', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Dugimont']</t>
+    <t>['Elis', 'Elis', 'Del_Castillo', 'Tavares', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Bayo', 'Borges', 'Borges']</t>
+  </si>
+  <si>
+    <t>['Dembele']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>['Gameiro', 'Djiku', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Brahimi', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Cajuste', 'Munetsi', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Reims</t>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>['Innocent']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Lebas']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Soler', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Djiku', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Porozo', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Bailly']</t>
+    <t>['Roure', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Gomes']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Castelletto', 'Delort', 'Castelletto']</t>
+  </si>
+  <si>
+    <t>['Onaiwu', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Kipembe']</t>
+  </si>
+  <si>
+    <t>['Tchato', 'Germain']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Varane']</t>
   </si>
 </sst>
 </file>
@@ -549,28 +546,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,28 +575,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,28 +604,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,25 +633,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -665,25 +662,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -700,22 +697,22 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -723,22 +720,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -752,28 +749,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,28 +778,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,25 +807,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>2</v>

--- a/jour21.xlsx
+++ b/jour21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Elis', 'Elis', 'Del_Castillo', 'Tavares', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Bayo', 'Borges', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Dembele']</t>
+    <t>['Brassier', 'Brassier', 'Mounie', 'Brassier']</t>
+  </si>
+  <si>
+    <t>['Sanson', 'Le_Marchand', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Laporte', 'Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Kalimuendo', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Alphonse', 'Hamouma', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Rajot']</t>
+  </si>
+  <si>
+    <t>['Guillaume']</t>
+  </si>
+  <si>
+    <t>['Desler']</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Ruiz', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Serrano']</t>
+  </si>
+  <si>
+    <t>['Ugbo']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Sakho']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Gameiro', 'Djiku', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Brahimi', 'Brahimi', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Munetsi', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>['Roure', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Gomes']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Delort', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Kipembe']</t>
-  </si>
-  <si>
-    <t>['Tchato', 'Germain']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Varane']</t>
+    <t>['Moffi', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Valencia', 'Boura']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Guessand']</t>
   </si>
 </sst>
 </file>
@@ -543,31 +546,31 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -575,28 +578,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -604,54 +607,54 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -659,83 +662,83 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -746,25 +749,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
@@ -775,57 +778,57 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>2</v>

--- a/jour21.xlsx
+++ b/jour21.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +43,106 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Brassier', 'Brassier', 'Mounie', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Le_Marchand', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Laporte', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Kalimuendo', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Alphonse', 'Hamouma', 'Lebas']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Rajot']</t>
-  </si>
-  <si>
-    <t>['Guillaume']</t>
-  </si>
-  <si>
-    <t>['Desler']</t>
-  </si>
-  <si>
-    <t>Brest</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Munetsi', 'Balogin']</t>
+  </si>
+  <si>
+    <t>['Maurer', 'Maurer', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Ruiz', 'Kipembe']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Bain', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Innocent']</t>
+  </si>
+  <si>
+    <t>['Gouiri']</t>
+  </si>
+  <si>
+    <t>['Conte']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Rennes</t>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Ruiz', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Ugbo']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Sakho']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Valencia', 'Boura']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Guessand']</t>
+    <t>['Camara', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Pereira']</t>
+  </si>
+  <si>
+    <t>['Pele', 'Ben_Yedder', 'Sibide']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Balerdi', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Payet', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Alphonse']</t>
   </si>
 </sst>
 </file>
@@ -512,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,295 +531,396 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
+      <c r="G2">
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>39</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
+      <c r="G5">
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
         <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
